--- a/notebooks/metrics_svdiff_attn.xlsx
+++ b/notebooks/metrics_svdiff_attn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60130060\aibek_diploma\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E04BBE-0EEA-4661-8032-300A68D512B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900983B-78B0-4609-971D-E05C9D9F1E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>CLIP-I</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>0.8239909</t>
+  </si>
+  <si>
+    <t>0.2423251</t>
+  </si>
+  <si>
+    <t>0.85902274</t>
+  </si>
+  <si>
+    <t>0.81868464</t>
   </si>
 </sst>
 </file>
@@ -648,7 +657,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,6 +1066,15 @@
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
